--- a/templates/laporan_sikp.xlsx
+++ b/templates/laporan_sikp.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="20490" windowHeight="7890"/>
+    <workbookView xWindow="0" yWindow="4050" windowWidth="20490" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -200,20 +200,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -549,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,21 +585,21 @@
       <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -636,53 +636,53 @@
       <c r="M5" s="5"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
       <c r="K8" s="2" t="s">
         <v>10</v>
       </c>
